--- a/biology/Zoologie/Ctenocidaridae/Ctenocidaridae.xlsx
+++ b/biology/Zoologie/Ctenocidaridae/Ctenocidaridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ctenocidaridae sont une famille d'oursins de l'ordre des Cidaroida.
 </t>
@@ -511,11 +523,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins réguliers : le test (coquille) est arrondi, avec le péristome (bouche) située au centre de la face orale (inférieure) et le périprocte (appareil contenant l'anus et les pores génitaux) à l'opposé, au sommet de la face aborale (supérieure).
-Les plaques interambulacraires sont granulées de manière homogène, avec des sutures invisibles ; elles portent chacune un gros tubercules primaires, perforé et non crénulé. Les ambulacres sont simples. Les radioles primaires sont longues, de section ronde et portent des piquants secondaires. L'absence de cercles scrobiculaires est un bon caractère déterminant de ce groupe[1].
-Cette famille est apparue au Crétacé supérieur, et est actuellement essentiellement répartie en Antarctique ou dans les abysses[1].
+Les plaques interambulacraires sont granulées de manière homogène, avec des sutures invisibles ; elles portent chacune un gros tubercules primaires, perforé et non crénulé. Les ambulacres sont simples. Les radioles primaires sont longues, de section ronde et portent des piquants secondaires. L'absence de cercles scrobiculaires est un bon caractère déterminant de ce groupe.
+Cette famille est apparue au Crétacé supérieur, et est actuellement essentiellement répartie en Antarctique ou dans les abysses.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (9 juillet 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (9 juillet 2014) :
 genre Aporocidaris A. Agassiz &amp; H.L. Clark, 1907 -- 6 espèces
 genre Ctenocidaris Mortensen, 1910 -- 9 espèces
 genre Homalocidaris Mortensen, 1928 -- 1 espèce
